--- a/Tabla de tiempos profiler.xlsx
+++ b/Tabla de tiempos profiler.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Documents\UVG\Tercer semestre\Algoritmos y estructura de datos\Proyectos Netbeans\HojaTrabajo6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NetBeansProjects\HojaDeTrabajo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>HashMap</t>
   </si>
@@ -35,47 +35,26 @@
     <t>LinkedHashMap</t>
   </si>
   <si>
-    <t>Tiempo total del Main</t>
+    <t>Corrida</t>
   </si>
   <si>
-    <t>88,475 ms</t>
+    <t>Tiempo (en ms)</t>
   </si>
   <si>
-    <t>84,669 ms</t>
+    <t>Promedio:</t>
   </si>
   <si>
-    <t>77,085 ms</t>
+    <t>Tiempo en ms</t>
   </si>
   <si>
-    <t>Imprimir por tipo</t>
-  </si>
-  <si>
-    <t>796 ms</t>
-  </si>
-  <si>
-    <t>964 ms</t>
-  </si>
-  <si>
-    <t>812 ms</t>
-  </si>
-  <si>
-    <t>Imprimir todo</t>
-  </si>
-  <si>
-    <t>757 ms</t>
-  </si>
-  <si>
-    <t>804 ms</t>
-  </si>
-  <si>
-    <t>785 ms</t>
+    <t>Cant. Datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +62,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,24 +87,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -119,10 +125,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -133,16 +169,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +390,3415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Tiempo de impresión vs tiempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-275C-4BBA-AD3D-3E6B6A4A8108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-275C-4BBA-AD3D-3E6B6A4A8108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinkedHashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-275C-4BBA-AD3D-3E6B6A4A8108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="411256040"/>
+        <c:axId val="411258992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="411256040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Corrida</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411258992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411258992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="680"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo en ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411256040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantidad de datos vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo (en ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo (en ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B15-4E20-A44A-FD7398E02DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411245216"/>
+        <c:axId val="411250136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411245216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411250136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411250136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411245216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantidad de datos vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo (en ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo (en ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9414-416B-85E4-77622404DB9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="562147256"/>
+        <c:axId val="562146600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="562147256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> de datos</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562146600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="562146600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562147256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A478BEDC-0B24-4F48-8200-9C6A7884EA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147733</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449179</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C54328-86B1-4CCE-9E55-E0AFDF3574AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18252</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216567</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE77AB0-A4F3-477E-ACA9-055D86351AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,76 +4098,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="195" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>639</v>
+      </c>
+      <c r="D4" s="9">
+        <v>597</v>
+      </c>
+      <c r="E4" s="9">
+        <v>613</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>614</v>
+      </c>
+      <c r="D5" s="4">
+        <v>631</v>
+      </c>
+      <c r="E5" s="4">
+        <v>656</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>574</v>
+      </c>
+      <c r="D6" s="4">
+        <v>594</v>
+      </c>
+      <c r="E6" s="4">
+        <v>614</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="4">
+        <v>569</v>
+      </c>
+      <c r="D7" s="4">
+        <v>581</v>
+      </c>
+      <c r="E7" s="4">
+        <v>605</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C8" s="13">
+        <v>564</v>
+      </c>
+      <c r="D8" s="13">
+        <v>603</v>
+      </c>
+      <c r="E8" s="13">
+        <v>577</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUM(C4:C8)/5</f>
+        <v>592</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(D4:D8)/5</f>
+        <v>601.20000000000005</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E4:E8)/5</f>
+        <v>613</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="E18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="H18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
+      <c r="C19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="25">
+        <v>611</v>
+      </c>
+      <c r="E20" s="25">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="25">
+        <v>598</v>
+      </c>
+      <c r="H20" s="25">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>578</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>485</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7000</v>
+      </c>
+      <c r="I21" s="4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="4">
+        <v>457</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="4">
+        <v>450</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>425</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>333</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="4">
+        <v>361</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="4">
+        <v>243</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>236</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="4">
+        <v>194</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I25" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>113</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="4">
+        <v>122</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="10">
+        <v>30.9</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="10">
+        <v>52.1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="10">
+        <v>50.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>